--- a/VtigerCRM_FW_A9/src/test/resources/testScriptData.xlsx
+++ b/VtigerCRM_FW_A9/src/test/resources/testScriptData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>orgName</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>wipro_</t>
+  </si>
+  <si>
+    <t>9876543210</t>
   </si>
 </sst>
 </file>
@@ -121,10 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +412,13 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="197" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -435,7 +442,9 @@
         <v>5</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
